--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>Serie</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6183,10 +6186,10 @@
         <v>104.8</v>
       </c>
       <c r="D287">
-        <v>102.2</v>
+        <v>100.4</v>
       </c>
       <c r="E287">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6200,10 +6203,10 @@
         <v>104.3</v>
       </c>
       <c r="D288">
-        <v>102.3</v>
+        <v>100.5</v>
       </c>
       <c r="E288">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6217,10 +6220,10 @@
         <v>104.7</v>
       </c>
       <c r="D289">
-        <v>102.3</v>
+        <v>100.5</v>
       </c>
       <c r="E289">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6234,10 +6237,10 @@
         <v>102.9</v>
       </c>
       <c r="D290">
-        <v>102.2</v>
+        <v>100.5</v>
       </c>
       <c r="E290">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6251,10 +6254,10 @@
         <v>103.3</v>
       </c>
       <c r="D291">
-        <v>102</v>
+        <v>100.3</v>
       </c>
       <c r="E291">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6268,10 +6271,10 @@
         <v>104.5</v>
       </c>
       <c r="D292">
-        <v>101.9</v>
+        <v>100.3</v>
       </c>
       <c r="E292">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6285,10 +6288,10 @@
         <v>105.3</v>
       </c>
       <c r="D293">
-        <v>101.9</v>
+        <v>100.2</v>
       </c>
       <c r="E293">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6302,10 +6305,10 @@
         <v>105.3</v>
       </c>
       <c r="D294">
-        <v>101.8</v>
+        <v>100.1</v>
       </c>
       <c r="E294">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6319,10 +6322,10 @@
         <v>105.6</v>
       </c>
       <c r="D295">
-        <v>101.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E295">
-        <v>100.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6336,10 +6339,10 @@
         <v>105.3</v>
       </c>
       <c r="D296">
-        <v>101.9</v>
+        <v>100</v>
       </c>
       <c r="E296">
-        <v>100.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6353,10 +6356,10 @@
         <v>104.7</v>
       </c>
       <c r="D297">
-        <v>102</v>
+        <v>100.1</v>
       </c>
       <c r="E297">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6370,10 +6373,10 @@
         <v>104.9</v>
       </c>
       <c r="D298">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E298">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6387,10 +6390,10 @@
         <v>105.1</v>
       </c>
       <c r="D299">
-        <v>101.8</v>
+        <v>99.8</v>
       </c>
       <c r="E299">
-        <v>100.7</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6404,10 +6407,10 @@
         <v>104.5</v>
       </c>
       <c r="D300">
-        <v>101.3</v>
+        <v>99.5</v>
       </c>
       <c r="E300">
-        <v>100.7</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6421,10 +6424,10 @@
         <v>104.9</v>
       </c>
       <c r="D301">
-        <v>101.1</v>
+        <v>99.3</v>
       </c>
       <c r="E301">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6438,10 +6441,10 @@
         <v>104.4</v>
       </c>
       <c r="D302">
-        <v>101.6</v>
+        <v>99.8</v>
       </c>
       <c r="E302">
-        <v>101</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6455,10 +6458,10 @@
         <v>104.5</v>
       </c>
       <c r="D303">
-        <v>101.6</v>
+        <v>99.8</v>
       </c>
       <c r="E303">
-        <v>101</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6472,10 +6475,10 @@
         <v>105.5</v>
       </c>
       <c r="D304">
-        <v>101.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E304">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6489,10 +6492,10 @@
         <v>106</v>
       </c>
       <c r="D305">
-        <v>101.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E305">
-        <v>100.5</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6506,10 +6509,10 @@
         <v>106.3</v>
       </c>
       <c r="D306">
-        <v>101.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E306">
-        <v>100.6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6523,10 +6526,27 @@
         <v>106.5</v>
       </c>
       <c r="D307">
-        <v>101.9</v>
+        <v>99.5</v>
       </c>
       <c r="E307">
-        <v>100.5</v>
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308">
+        <v>107.6</v>
+      </c>
+      <c r="C308">
+        <v>106.1</v>
+      </c>
+      <c r="D308">
+        <v>99.7</v>
+      </c>
+      <c r="E308">
+        <v>99.09999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Serie</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6549,6 +6552,17 @@
         <v>99.09999999999999</v>
       </c>
     </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>312</v>
+      </c>
+      <c r="B309">
+        <v>108</v>
+      </c>
+      <c r="C309">
+        <v>106.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Serie</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6562,6 +6565,23 @@
       <c r="C309">
         <v>106.4</v>
       </c>
+      <c r="D309">
+        <v>99.7</v>
+      </c>
+      <c r="E309">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>313</v>
+      </c>
+      <c r="B310">
+        <v>108.5</v>
+      </c>
+      <c r="C310">
+        <v>106.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Serie</t>
   </si>
@@ -29,6 +29,510 @@
   </si>
   <si>
     <t>Japón índice de todos los ítemes menos alimentos y energía</t>
+  </si>
+  <si>
+    <t>01-01-1996</t>
+  </si>
+  <si>
+    <t>01-02-1996</t>
+  </si>
+  <si>
+    <t>01-03-1996</t>
+  </si>
+  <si>
+    <t>01-04-1996</t>
+  </si>
+  <si>
+    <t>01-05-1996</t>
+  </si>
+  <si>
+    <t>01-06-1996</t>
+  </si>
+  <si>
+    <t>01-07-1996</t>
+  </si>
+  <si>
+    <t>01-08-1996</t>
+  </si>
+  <si>
+    <t>01-09-1996</t>
+  </si>
+  <si>
+    <t>01-10-1996</t>
+  </si>
+  <si>
+    <t>01-11-1996</t>
+  </si>
+  <si>
+    <t>01-12-1996</t>
+  </si>
+  <si>
+    <t>01-01-1997</t>
+  </si>
+  <si>
+    <t>01-02-1997</t>
+  </si>
+  <si>
+    <t>01-03-1997</t>
+  </si>
+  <si>
+    <t>01-04-1997</t>
+  </si>
+  <si>
+    <t>01-05-1997</t>
+  </si>
+  <si>
+    <t>01-06-1997</t>
+  </si>
+  <si>
+    <t>01-07-1997</t>
+  </si>
+  <si>
+    <t>01-08-1997</t>
+  </si>
+  <si>
+    <t>01-09-1997</t>
+  </si>
+  <si>
+    <t>01-10-1997</t>
+  </si>
+  <si>
+    <t>01-11-1997</t>
+  </si>
+  <si>
+    <t>01-12-1997</t>
+  </si>
+  <si>
+    <t>01-01-1998</t>
+  </si>
+  <si>
+    <t>01-02-1998</t>
+  </si>
+  <si>
+    <t>01-03-1998</t>
+  </si>
+  <si>
+    <t>01-04-1998</t>
+  </si>
+  <si>
+    <t>01-05-1998</t>
+  </si>
+  <si>
+    <t>01-06-1998</t>
+  </si>
+  <si>
+    <t>01-07-1998</t>
+  </si>
+  <si>
+    <t>01-08-1998</t>
+  </si>
+  <si>
+    <t>01-09-1998</t>
+  </si>
+  <si>
+    <t>01-10-1998</t>
+  </si>
+  <si>
+    <t>01-11-1998</t>
+  </si>
+  <si>
+    <t>01-12-1998</t>
+  </si>
+  <si>
+    <t>01-01-1999</t>
+  </si>
+  <si>
+    <t>01-02-1999</t>
+  </si>
+  <si>
+    <t>01-03-1999</t>
+  </si>
+  <si>
+    <t>01-04-1999</t>
+  </si>
+  <si>
+    <t>01-05-1999</t>
+  </si>
+  <si>
+    <t>01-06-1999</t>
+  </si>
+  <si>
+    <t>01-07-1999</t>
+  </si>
+  <si>
+    <t>01-08-1999</t>
+  </si>
+  <si>
+    <t>01-09-1999</t>
+  </si>
+  <si>
+    <t>01-10-1999</t>
+  </si>
+  <si>
+    <t>01-11-1999</t>
+  </si>
+  <si>
+    <t>01-12-1999</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
+  </si>
+  <si>
+    <t>01-02-2000</t>
+  </si>
+  <si>
+    <t>01-03-2000</t>
+  </si>
+  <si>
+    <t>01-04-2000</t>
+  </si>
+  <si>
+    <t>01-05-2000</t>
+  </si>
+  <si>
+    <t>01-06-2000</t>
+  </si>
+  <si>
+    <t>01-07-2000</t>
+  </si>
+  <si>
+    <t>01-08-2000</t>
+  </si>
+  <si>
+    <t>01-09-2000</t>
+  </si>
+  <si>
+    <t>01-10-2000</t>
+  </si>
+  <si>
+    <t>01-11-2000</t>
+  </si>
+  <si>
+    <t>01-12-2000</t>
+  </si>
+  <si>
+    <t>01-01-2001</t>
+  </si>
+  <si>
+    <t>01-02-2001</t>
+  </si>
+  <si>
+    <t>01-03-2001</t>
+  </si>
+  <si>
+    <t>01-04-2001</t>
+  </si>
+  <si>
+    <t>01-05-2001</t>
+  </si>
+  <si>
+    <t>01-06-2001</t>
+  </si>
+  <si>
+    <t>01-07-2001</t>
+  </si>
+  <si>
+    <t>01-08-2001</t>
+  </si>
+  <si>
+    <t>01-09-2001</t>
+  </si>
+  <si>
+    <t>01-10-2001</t>
+  </si>
+  <si>
+    <t>01-11-2001</t>
+  </si>
+  <si>
+    <t>01-12-2001</t>
+  </si>
+  <si>
+    <t>01-01-2002</t>
+  </si>
+  <si>
+    <t>01-02-2002</t>
+  </si>
+  <si>
+    <t>01-03-2002</t>
+  </si>
+  <si>
+    <t>01-04-2002</t>
+  </si>
+  <si>
+    <t>01-05-2002</t>
+  </si>
+  <si>
+    <t>01-06-2002</t>
+  </si>
+  <si>
+    <t>01-07-2002</t>
+  </si>
+  <si>
+    <t>01-08-2002</t>
+  </si>
+  <si>
+    <t>01-09-2002</t>
+  </si>
+  <si>
+    <t>01-10-2002</t>
+  </si>
+  <si>
+    <t>01-11-2002</t>
+  </si>
+  <si>
+    <t>01-12-2002</t>
+  </si>
+  <si>
+    <t>01-01-2003</t>
+  </si>
+  <si>
+    <t>01-02-2003</t>
+  </si>
+  <si>
+    <t>01-03-2003</t>
+  </si>
+  <si>
+    <t>01-04-2003</t>
+  </si>
+  <si>
+    <t>01-05-2003</t>
+  </si>
+  <si>
+    <t>01-06-2003</t>
+  </si>
+  <si>
+    <t>01-07-2003</t>
+  </si>
+  <si>
+    <t>01-08-2003</t>
+  </si>
+  <si>
+    <t>01-09-2003</t>
+  </si>
+  <si>
+    <t>01-10-2003</t>
+  </si>
+  <si>
+    <t>01-11-2003</t>
+  </si>
+  <si>
+    <t>01-12-2003</t>
+  </si>
+  <si>
+    <t>01-01-2004</t>
+  </si>
+  <si>
+    <t>01-02-2004</t>
+  </si>
+  <si>
+    <t>01-03-2004</t>
+  </si>
+  <si>
+    <t>01-04-2004</t>
+  </si>
+  <si>
+    <t>01-05-2004</t>
+  </si>
+  <si>
+    <t>01-06-2004</t>
+  </si>
+  <si>
+    <t>01-07-2004</t>
+  </si>
+  <si>
+    <t>01-08-2004</t>
+  </si>
+  <si>
+    <t>01-09-2004</t>
+  </si>
+  <si>
+    <t>01-10-2004</t>
+  </si>
+  <si>
+    <t>01-11-2004</t>
+  </si>
+  <si>
+    <t>01-12-2004</t>
+  </si>
+  <si>
+    <t>01-01-2005</t>
+  </si>
+  <si>
+    <t>01-02-2005</t>
+  </si>
+  <si>
+    <t>01-03-2005</t>
+  </si>
+  <si>
+    <t>01-04-2005</t>
+  </si>
+  <si>
+    <t>01-05-2005</t>
+  </si>
+  <si>
+    <t>01-06-2005</t>
+  </si>
+  <si>
+    <t>01-07-2005</t>
+  </si>
+  <si>
+    <t>01-08-2005</t>
+  </si>
+  <si>
+    <t>01-09-2005</t>
+  </si>
+  <si>
+    <t>01-10-2005</t>
+  </si>
+  <si>
+    <t>01-11-2005</t>
+  </si>
+  <si>
+    <t>01-12-2005</t>
+  </si>
+  <si>
+    <t>01-01-2006</t>
+  </si>
+  <si>
+    <t>01-02-2006</t>
+  </si>
+  <si>
+    <t>01-03-2006</t>
+  </si>
+  <si>
+    <t>01-04-2006</t>
+  </si>
+  <si>
+    <t>01-05-2006</t>
+  </si>
+  <si>
+    <t>01-06-2006</t>
+  </si>
+  <si>
+    <t>01-07-2006</t>
+  </si>
+  <si>
+    <t>01-08-2006</t>
+  </si>
+  <si>
+    <t>01-09-2006</t>
+  </si>
+  <si>
+    <t>01-10-2006</t>
+  </si>
+  <si>
+    <t>01-11-2006</t>
+  </si>
+  <si>
+    <t>01-12-2006</t>
+  </si>
+  <si>
+    <t>01-01-2007</t>
+  </si>
+  <si>
+    <t>01-02-2007</t>
+  </si>
+  <si>
+    <t>01-03-2007</t>
+  </si>
+  <si>
+    <t>01-04-2007</t>
+  </si>
+  <si>
+    <t>01-05-2007</t>
+  </si>
+  <si>
+    <t>01-06-2007</t>
+  </si>
+  <si>
+    <t>01-07-2007</t>
+  </si>
+  <si>
+    <t>01-08-2007</t>
+  </si>
+  <si>
+    <t>01-09-2007</t>
+  </si>
+  <si>
+    <t>01-10-2007</t>
+  </si>
+  <si>
+    <t>01-11-2007</t>
+  </si>
+  <si>
+    <t>01-12-2007</t>
+  </si>
+  <si>
+    <t>01-01-2008</t>
+  </si>
+  <si>
+    <t>01-02-2008</t>
+  </si>
+  <si>
+    <t>01-03-2008</t>
+  </si>
+  <si>
+    <t>01-04-2008</t>
+  </si>
+  <si>
+    <t>01-05-2008</t>
+  </si>
+  <si>
+    <t>01-06-2008</t>
+  </si>
+  <si>
+    <t>01-07-2008</t>
+  </si>
+  <si>
+    <t>01-08-2008</t>
+  </si>
+  <si>
+    <t>01-09-2008</t>
+  </si>
+  <si>
+    <t>01-10-2008</t>
+  </si>
+  <si>
+    <t>01-11-2008</t>
+  </si>
+  <si>
+    <t>01-12-2008</t>
+  </si>
+  <si>
+    <t>01-01-2009</t>
+  </si>
+  <si>
+    <t>01-02-2009</t>
+  </si>
+  <si>
+    <t>01-03-2009</t>
+  </si>
+  <si>
+    <t>01-04-2009</t>
+  </si>
+  <si>
+    <t>01-05-2009</t>
+  </si>
+  <si>
+    <t>01-06-2009</t>
+  </si>
+  <si>
+    <t>01-07-2009</t>
+  </si>
+  <si>
+    <t>01-08-2009</t>
+  </si>
+  <si>
+    <t>01-09-2009</t>
+  </si>
+  <si>
+    <t>01-10-2009</t>
+  </si>
+  <si>
+    <t>01-11-2009</t>
+  </si>
+  <si>
+    <t>01-12-2009</t>
   </si>
   <si>
     <t>01-01-2010</t>
@@ -809,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +1341,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>91.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C2">
-        <v>92.8</v>
+        <v>75.5</v>
       </c>
       <c r="D2">
-        <v>96.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E2">
-        <v>99.3</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -854,16 +1358,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>91.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C3">
-        <v>93.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D3">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E3">
-        <v>99.2</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -871,16 +1375,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>92.90000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="C4">
-        <v>94.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D4">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
       <c r="E4">
-        <v>99.5</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -888,16 +1392,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>93.3</v>
+        <v>71.8</v>
       </c>
       <c r="C5">
-        <v>94.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D5">
-        <v>96.90000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E5">
-        <v>99.2</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -905,16 +1409,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>93.40000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C6">
-        <v>94.5</v>
+        <v>76.3</v>
       </c>
       <c r="D6">
-        <v>96.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E6">
-        <v>99.09999999999999</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -922,16 +1426,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>93.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>94.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D7">
-        <v>96.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E7">
-        <v>98.8</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -939,16 +1443,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>76.5</v>
       </c>
       <c r="D8">
-        <v>96.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="E8">
-        <v>98.40000000000001</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -956,16 +1460,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>93.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C9">
-        <v>94.3</v>
+        <v>76.5</v>
       </c>
       <c r="D9">
-        <v>96.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E9">
-        <v>98.40000000000001</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,16 +1477,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>93.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C10">
-        <v>94.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D10">
-        <v>96.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E10">
-        <v>98.40000000000001</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,16 +1494,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>93.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>76.7</v>
       </c>
       <c r="D11">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
       <c r="E11">
-        <v>98.90000000000001</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,16 +1511,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>93.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C12">
-        <v>94.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D12">
-        <v>96.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E12">
-        <v>98.59999999999999</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,16 +1528,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>94.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C13">
-        <v>95.3</v>
+        <v>76.7</v>
       </c>
       <c r="D13">
-        <v>96.2</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>98.5</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,16 +1545,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>93.7</v>
+        <v>72.5</v>
       </c>
       <c r="C14">
-        <v>93.8</v>
+        <v>76.7</v>
       </c>
       <c r="D14">
-        <v>96.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E14">
-        <v>98</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,16 +1562,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>94.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="C15">
-        <v>94.09999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D15">
-        <v>96.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="E15">
-        <v>97.90000000000001</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,16 +1579,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>95.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="C16">
-        <v>95.5</v>
+        <v>77.3</v>
       </c>
       <c r="D16">
-        <v>96.3</v>
+        <v>97.8</v>
       </c>
       <c r="E16">
-        <v>98.09999999999999</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1092,16 +1596,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>95.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C17">
-        <v>95.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D17">
-        <v>96.5</v>
+        <v>99.8</v>
       </c>
       <c r="E17">
-        <v>98.09999999999999</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1109,16 +1613,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>95.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C18">
-        <v>95.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D18">
-        <v>96.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>98.3</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1126,16 +1630,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>95.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C19">
-        <v>96</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D19">
-        <v>96.3</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>98</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1143,16 +1647,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>95.3</v>
+        <v>73</v>
       </c>
       <c r="C20">
-        <v>95.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D20">
-        <v>96.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E20">
-        <v>97.90000000000001</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1160,16 +1664,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>95.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C21">
-        <v>95.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D21">
-        <v>96.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E21">
-        <v>97.90000000000001</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1177,16 +1681,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>96.2</v>
+        <v>73.2</v>
       </c>
       <c r="C22">
-        <v>96.2</v>
+        <v>77.7</v>
       </c>
       <c r="D22">
-        <v>96.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="E22">
-        <v>98</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1194,16 +1698,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>96.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C23">
-        <v>96.5</v>
+        <v>77.7</v>
       </c>
       <c r="D23">
-        <v>96.5</v>
+        <v>100.7</v>
       </c>
       <c r="E23">
-        <v>97.90000000000001</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1211,16 +1715,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>96.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C24">
-        <v>96.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D24">
-        <v>95.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>97.5</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,16 +1732,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C25">
-        <v>96.8</v>
+        <v>77.8</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>99.8</v>
       </c>
       <c r="E25">
-        <v>97.5</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,16 +1749,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>96.2</v>
+        <v>73.3</v>
       </c>
       <c r="C26">
-        <v>95.2</v>
+        <v>77.7</v>
       </c>
       <c r="D26">
-        <v>96.2</v>
+        <v>99.7</v>
       </c>
       <c r="E26">
-        <v>97.2</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,16 +1766,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>96.7</v>
+        <v>73.5</v>
       </c>
       <c r="C27">
-        <v>95.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D27">
-        <v>96.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E27">
-        <v>97.40000000000001</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,16 +1783,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>97.90000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C28">
-        <v>97</v>
+        <v>78.2</v>
       </c>
       <c r="D28">
-        <v>96.8</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>97.59999999999999</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,16 +1800,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>98.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="C29">
-        <v>97.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="D29">
-        <v>96.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E29">
-        <v>97.8</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1313,16 +1817,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>98.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C30">
-        <v>97.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D30">
-        <v>96.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="E30">
-        <v>97.7</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1330,16 +1834,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>98.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C31">
-        <v>97.5</v>
+        <v>78.5</v>
       </c>
       <c r="D31">
-        <v>96.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E31">
-        <v>97.5</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1347,16 +1851,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>97.59999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C32">
-        <v>96.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D32">
-        <v>95.8</v>
+        <v>99.5</v>
       </c>
       <c r="E32">
-        <v>97.3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1364,16 +1868,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>96.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="D33">
-        <v>96</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E33">
-        <v>97.40000000000001</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1381,16 +1885,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>98.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C34">
-        <v>97.7</v>
+        <v>78.8</v>
       </c>
       <c r="D34">
-        <v>96.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="E34">
-        <v>97.40000000000001</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1398,16 +1902,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C35">
-        <v>97.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="D35">
-        <v>96.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="E35">
-        <v>97.40000000000001</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1415,16 +1919,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>98.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C36">
-        <v>97.8</v>
+        <v>78.8</v>
       </c>
       <c r="D36">
-        <v>95.8</v>
+        <v>100.8</v>
       </c>
       <c r="E36">
-        <v>97.09999999999999</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1432,16 +1936,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>99.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C37">
-        <v>98.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D37">
-        <v>95.8</v>
+        <v>100.4</v>
       </c>
       <c r="E37">
-        <v>96.90000000000001</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1449,16 +1953,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>98.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C38">
-        <v>96.5</v>
+        <v>78.7</v>
       </c>
       <c r="D38">
-        <v>95.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38">
-        <v>96.5</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1466,16 +1970,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>98.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C39">
-        <v>96.8</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>95.7</v>
+        <v>99.5</v>
       </c>
       <c r="E39">
-        <v>96.5</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1483,16 +1987,16 @@
         <v>43</v>
       </c>
       <c r="B40">
+        <v>74.3</v>
+      </c>
+      <c r="C40">
+        <v>79.2</v>
+      </c>
+      <c r="D40">
         <v>99.59999999999999</v>
       </c>
-      <c r="C40">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D40">
-        <v>95.90000000000001</v>
-      </c>
       <c r="E40">
-        <v>96.90000000000001</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1500,16 +2004,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>99.5</v>
+        <v>74.5</v>
       </c>
       <c r="C41">
-        <v>98.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="D41">
-        <v>96.2</v>
+        <v>100.1</v>
       </c>
       <c r="E41">
-        <v>97.3</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1517,16 +2021,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>99.59999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C42">
-        <v>98.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="D42">
-        <v>96.3</v>
+        <v>100.1</v>
       </c>
       <c r="E42">
-        <v>97.3</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1534,16 +2038,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>99.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C43">
-        <v>98.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="D43">
-        <v>96.3</v>
+        <v>99.8</v>
       </c>
       <c r="E43">
-        <v>97.2</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1551,16 +2055,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>99.2</v>
+        <v>74.7</v>
       </c>
       <c r="C44">
-        <v>97.8</v>
+        <v>79.5</v>
       </c>
       <c r="D44">
-        <v>96.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E44">
-        <v>97.2</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1568,16 +2072,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>99.3</v>
+        <v>74.8</v>
       </c>
       <c r="C45">
-        <v>98</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D45">
-        <v>96.8</v>
+        <v>99.7</v>
       </c>
       <c r="E45">
-        <v>97.40000000000001</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1585,16 +2089,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>99.8</v>
+        <v>74.8</v>
       </c>
       <c r="C46">
-        <v>98.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D46">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E46">
-        <v>97.40000000000001</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1602,16 +2106,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>99.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C47">
-        <v>98.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D47">
-        <v>97.2</v>
+        <v>100.2</v>
       </c>
       <c r="E47">
-        <v>97.59999999999999</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1619,16 +2123,16 @@
         <v>51</v>
       </c>
       <c r="B48">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="D48">
         <v>99.59999999999999</v>
       </c>
-      <c r="C48">
-        <v>98.7</v>
-      </c>
-      <c r="D48">
-        <v>97.3</v>
-      </c>
       <c r="E48">
-        <v>97.59999999999999</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1636,16 +2140,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>100</v>
+        <v>75.2</v>
       </c>
       <c r="C49">
-        <v>99</v>
+        <v>79.7</v>
       </c>
       <c r="D49">
-        <v>97.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E49">
-        <v>97.59999999999999</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1653,16 +2157,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>98.8</v>
+        <v>75.3</v>
       </c>
       <c r="C50">
-        <v>97.3</v>
+        <v>79.5</v>
       </c>
       <c r="D50">
-        <v>97.2</v>
+        <v>99.2</v>
       </c>
       <c r="E50">
-        <v>97.09999999999999</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1670,16 +2174,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>99.09999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="C51">
-        <v>97.7</v>
+        <v>79.7</v>
       </c>
       <c r="D51">
-        <v>97.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E51">
-        <v>97.2</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1687,16 +2191,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>100.1</v>
+        <v>75.7</v>
       </c>
       <c r="C52">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="D52">
         <v>99.09999999999999</v>
       </c>
-      <c r="D52">
-        <v>97.5</v>
-      </c>
       <c r="E52">
-        <v>97.5</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1704,16 +2208,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>100.2</v>
+        <v>75.8</v>
       </c>
       <c r="C53">
-        <v>99.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="E53">
-        <v>99.5</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1721,16 +2225,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>100.1</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C54">
-        <v>99.3</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E54">
-        <v>99.5</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1738,16 +2242,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>100.2</v>
+        <v>76.2</v>
       </c>
       <c r="C55">
-        <v>99.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D55">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="E55">
-        <v>99.40000000000001</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1755,16 +2259,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>99.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C56">
-        <v>98.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="D56">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E56">
-        <v>99.5</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1772,16 +2276,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>99.7</v>
+        <v>76.3</v>
       </c>
       <c r="C57">
-        <v>98.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="E57">
-        <v>99.59999999999999</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1789,16 +2293,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>100.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C58">
-        <v>99.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="D58">
-        <v>100.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E58">
-        <v>99.59999999999999</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1806,16 +2310,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>100.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C59">
-        <v>99.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E59">
-        <v>99.8</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1823,16 +2327,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>99.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C60">
-        <v>99.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D60">
-        <v>99.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E60">
-        <v>99.59999999999999</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1840,16 +2344,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>99.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C61">
-        <v>99.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D61">
-        <v>99.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E61">
-        <v>99.59999999999999</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1857,16 +2361,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>98.2</v>
+        <v>76.8</v>
       </c>
       <c r="C62">
-        <v>97.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="D62">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E62">
-        <v>99.3</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1874,16 +2378,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>98.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C63">
-        <v>98.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D63">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E63">
-        <v>99.3</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1891,16 +2395,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C64">
-        <v>99.8</v>
+        <v>81</v>
       </c>
       <c r="D64">
-        <v>99.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E64">
-        <v>99.59999999999999</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1908,16 +2412,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>100.4</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C65">
-        <v>100.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D65">
-        <v>100.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1925,16 +2429,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>100.7</v>
+        <v>78.2</v>
       </c>
       <c r="C66">
-        <v>100.5</v>
+        <v>81.5</v>
       </c>
       <c r="D66">
-        <v>100.4</v>
+        <v>98.7</v>
       </c>
       <c r="E66">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1942,16 +2446,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>100.7</v>
+        <v>78.3</v>
       </c>
       <c r="C67">
-        <v>100.6</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D67">
-        <v>100.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1959,16 +2463,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>100.1</v>
+        <v>78.2</v>
       </c>
       <c r="C68">
-        <v>99.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D68">
-        <v>100.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E68">
-        <v>100</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1976,16 +2480,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>100.1</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C69">
-        <v>100.2</v>
+        <v>81.7</v>
       </c>
       <c r="D69">
-        <v>100.2</v>
+        <v>98.5</v>
       </c>
       <c r="E69">
-        <v>100.2</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1993,16 +2497,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>100.3</v>
+        <v>78.3</v>
       </c>
       <c r="C70">
-        <v>100.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D70">
-        <v>100.3</v>
+        <v>98.3</v>
       </c>
       <c r="E70">
-        <v>100.3</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2010,16 +2514,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>100.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C71">
-        <v>100.9</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D71">
-        <v>100.2</v>
+        <v>98.3</v>
       </c>
       <c r="E71">
-        <v>100.4</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2027,16 +2531,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>100</v>
+        <v>78.3</v>
       </c>
       <c r="C72">
-        <v>100.3</v>
+        <v>82.2</v>
       </c>
       <c r="D72">
-        <v>99.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E72">
-        <v>100.4</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2044,16 +2548,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>100</v>
+        <v>78.7</v>
       </c>
       <c r="C73">
-        <v>100.6</v>
+        <v>82.7</v>
       </c>
       <c r="D73">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="E73">
-        <v>100.4</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2061,16 +2565,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>98.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="C74">
-        <v>98.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D74">
-        <v>99.5</v>
+        <v>97.5</v>
       </c>
       <c r="E74">
-        <v>99.8</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2078,16 +2582,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>98.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C75">
-        <v>99.2</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D75">
-        <v>99.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E75">
-        <v>99.90000000000001</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2095,16 +2599,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>79.3</v>
       </c>
       <c r="C76">
-        <v>100.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D76">
-        <v>99.7</v>
+        <v>97.2</v>
       </c>
       <c r="E76">
-        <v>100.2</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2112,16 +2616,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>100.2</v>
+        <v>79.7</v>
       </c>
       <c r="C77">
-        <v>101</v>
+        <v>83.3</v>
       </c>
       <c r="D77">
-        <v>99.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E77">
-        <v>100.6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2129,16 +2633,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>100.6</v>
+        <v>79.8</v>
       </c>
       <c r="C78">
-        <v>101.3</v>
+        <v>83.5</v>
       </c>
       <c r="D78">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="E78">
-        <v>100.6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2146,16 +2650,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>100.8</v>
+        <v>79.8</v>
       </c>
       <c r="C79">
-        <v>101.4</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D79">
-        <v>99.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E79">
-        <v>100.5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2163,16 +2667,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>100.3</v>
+        <v>79.7</v>
       </c>
       <c r="C80">
-        <v>100.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D80">
-        <v>99.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E80">
-        <v>100.3</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2180,16 +2684,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>100.3</v>
+        <v>79.8</v>
       </c>
       <c r="C81">
-        <v>101</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D81">
-        <v>99.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E81">
-        <v>100.4</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2197,16 +2701,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>100.7</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>101.5</v>
+        <v>83.8</v>
       </c>
       <c r="D82">
-        <v>99.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E82">
-        <v>100.4</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2214,16 +2718,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>80.2</v>
       </c>
       <c r="C83">
-        <v>101.6</v>
+        <v>84</v>
       </c>
       <c r="D83">
-        <v>100.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E83">
-        <v>100.6</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2231,16 +2735,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>100.6</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C84">
-        <v>101</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D84">
-        <v>100.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E84">
-        <v>100.5</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2248,16 +2752,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>101.1</v>
+        <v>80.5</v>
       </c>
       <c r="C85">
-        <v>101.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D85">
-        <v>100.1</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E85">
-        <v>100.4</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2265,16 +2769,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>100.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C86">
-        <v>99.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D86">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E86">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2282,16 +2786,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>100.7</v>
+        <v>80.8</v>
       </c>
       <c r="C87">
-        <v>100.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D87">
-        <v>99.8</v>
+        <v>96.8</v>
       </c>
       <c r="E87">
-        <v>99.8</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2299,16 +2803,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>101.5</v>
+        <v>81.2</v>
       </c>
       <c r="C88">
-        <v>101.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D88">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E88">
-        <v>99.90000000000001</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2316,16 +2820,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>102.1</v>
+        <v>81.3</v>
       </c>
       <c r="C89">
-        <v>102.3</v>
+        <v>85</v>
       </c>
       <c r="D89">
-        <v>100.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E89">
-        <v>100.3</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2333,16 +2837,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>102</v>
+        <v>81.3</v>
       </c>
       <c r="C90">
-        <v>102.3</v>
+        <v>85</v>
       </c>
       <c r="D90">
-        <v>100.4</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E90">
-        <v>100.4</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2350,16 +2854,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>102.1</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C91">
-        <v>102.6</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D91">
-        <v>100.2</v>
+        <v>97.3</v>
       </c>
       <c r="E91">
-        <v>100.3</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2367,16 +2871,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>101.6</v>
+        <v>81.3</v>
       </c>
       <c r="C92">
-        <v>102</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D92">
-        <v>100.1</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E92">
-        <v>100.2</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2384,16 +2888,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>101.9</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C93">
-        <v>102.3</v>
+        <v>85</v>
       </c>
       <c r="D93">
-        <v>100.3</v>
+        <v>97.3</v>
       </c>
       <c r="E93">
-        <v>100.4</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2401,16 +2905,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>102.3</v>
+        <v>81.7</v>
       </c>
       <c r="C94">
-        <v>102.7</v>
+        <v>85.3</v>
       </c>
       <c r="D94">
-        <v>100.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E94">
-        <v>100.3</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2418,16 +2922,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>102.3</v>
+        <v>81.8</v>
       </c>
       <c r="C95">
-        <v>102.5</v>
+        <v>85.5</v>
       </c>
       <c r="D95">
-        <v>100.6</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E95">
-        <v>100.6</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2435,16 +2939,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>102.1</v>
+        <v>81.8</v>
       </c>
       <c r="C96">
-        <v>102</v>
+        <v>85.5</v>
       </c>
       <c r="D96">
-        <v>100.9</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E96">
-        <v>100.6</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2452,16 +2956,16 @@
         <v>100</v>
       </c>
       <c r="B97">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C97">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="D97">
+        <v>97</v>
+      </c>
+      <c r="E97">
         <v>102.5</v>
-      </c>
-      <c r="C97">
-        <v>102.4</v>
-      </c>
-      <c r="D97">
-        <v>101.2</v>
-      </c>
-      <c r="E97">
-        <v>100.5</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2469,16 +2973,16 @@
         <v>101</v>
       </c>
       <c r="B98">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C98">
+        <v>85.3</v>
+      </c>
+      <c r="D98">
+        <v>96.8</v>
+      </c>
+      <c r="E98">
         <v>101.6</v>
-      </c>
-      <c r="C98">
-        <v>100.7</v>
-      </c>
-      <c r="D98">
-        <v>101.3</v>
-      </c>
-      <c r="E98">
-        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2486,16 +2990,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>101.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C99">
-        <v>101.1</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D99">
-        <v>101.3</v>
+        <v>96.8</v>
       </c>
       <c r="E99">
-        <v>100.2</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2503,16 +3007,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>102.9</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C100">
-        <v>102.6</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D100">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E100">
-        <v>100.2</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2520,16 +3024,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>103.3</v>
+        <v>83</v>
       </c>
       <c r="C101">
-        <v>103</v>
+        <v>86.5</v>
       </c>
       <c r="D101">
-        <v>100.9</v>
+        <v>97</v>
       </c>
       <c r="E101">
-        <v>100.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2537,16 +3041,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>104</v>
+        <v>83.3</v>
       </c>
       <c r="C102">
-        <v>103.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D102">
-        <v>101</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E102">
-        <v>100.5</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2554,16 +3058,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>104.1</v>
+        <v>83.3</v>
       </c>
       <c r="C103">
-        <v>103.6</v>
+        <v>86.7</v>
       </c>
       <c r="D103">
-        <v>100.9</v>
+        <v>97.3</v>
       </c>
       <c r="E103">
-        <v>100.3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2571,16 +3075,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>103.9</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C104">
-        <v>103.2</v>
+        <v>86.5</v>
       </c>
       <c r="D104">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E104">
-        <v>100.2</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2588,16 +3092,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>83.3</v>
       </c>
       <c r="C105">
-        <v>103.3</v>
+        <v>86.7</v>
       </c>
       <c r="D105">
-        <v>101.6</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E105">
-        <v>100.6</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2605,16 +3109,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>104.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C106">
-        <v>103.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D106">
-        <v>101.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E106">
-        <v>100.5</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2622,16 +3126,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>104.7</v>
+        <v>83.7</v>
       </c>
       <c r="C107">
-        <v>103.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D107">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E107">
-        <v>100.7</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2639,16 +3143,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>104.1</v>
+        <v>83.7</v>
       </c>
       <c r="C108">
-        <v>102.9</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D108">
+        <v>97.7</v>
+      </c>
+      <c r="E108">
         <v>101.8</v>
-      </c>
-      <c r="E108">
-        <v>100.7</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2656,16 +3160,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>104.1</v>
+        <v>84</v>
       </c>
       <c r="C109">
-        <v>103.4</v>
+        <v>87.5</v>
       </c>
       <c r="D109">
-        <v>101.5</v>
+        <v>97.2</v>
       </c>
       <c r="E109">
-        <v>100.6</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2673,16 +3177,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>103</v>
+        <v>83.3</v>
       </c>
       <c r="C110">
-        <v>101.8</v>
+        <v>86.5</v>
       </c>
       <c r="D110">
-        <v>101.5</v>
+        <v>97</v>
       </c>
       <c r="E110">
-        <v>100.4</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2690,16 +3194,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>103.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C111">
-        <v>102.1</v>
+        <v>86.7</v>
       </c>
       <c r="D111">
-        <v>101.5</v>
+        <v>96.7</v>
       </c>
       <c r="E111">
-        <v>100.5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2707,16 +3211,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>104.4</v>
+        <v>84.3</v>
       </c>
       <c r="C112">
-        <v>103.4</v>
+        <v>87.2</v>
       </c>
       <c r="D112">
-        <v>101.5</v>
+        <v>97</v>
       </c>
       <c r="E112">
-        <v>100.5</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2724,16 +3228,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>105.1</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C113">
-        <v>104.4</v>
+        <v>87.5</v>
       </c>
       <c r="D113">
-        <v>101.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E113">
-        <v>100.9</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2741,16 +3245,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>105.2</v>
+        <v>84.8</v>
       </c>
       <c r="C114">
-        <v>104.3</v>
+        <v>87.8</v>
       </c>
       <c r="D114">
+        <v>97.2</v>
+      </c>
+      <c r="E114">
         <v>101.8</v>
-      </c>
-      <c r="E114">
-        <v>100.8</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2758,16 +3262,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>105.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C115">
-        <v>104.7</v>
+        <v>87.7</v>
       </c>
       <c r="D115">
+        <v>96.8</v>
+      </c>
+      <c r="E115">
         <v>101.6</v>
-      </c>
-      <c r="E115">
-        <v>100.6</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2775,16 +3279,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>104.9</v>
+        <v>84.8</v>
       </c>
       <c r="C116">
-        <v>104.1</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D116">
-        <v>101.6</v>
+        <v>96.7</v>
       </c>
       <c r="E116">
-        <v>100.5</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2792,16 +3296,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>105.1</v>
+        <v>85</v>
       </c>
       <c r="C117">
-        <v>104.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D117">
-        <v>101.8</v>
+        <v>96.8</v>
       </c>
       <c r="E117">
-        <v>100.9</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2809,16 +3313,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>105.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C118">
-        <v>104.7</v>
+        <v>87.8</v>
       </c>
       <c r="D118">
-        <v>101.9</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E118">
-        <v>100.8</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2826,16 +3330,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>105.4</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C119">
-        <v>104.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D119">
-        <v>100.4</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E119">
-        <v>100.4</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2843,16 +3347,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>105.1</v>
+        <v>85.5</v>
       </c>
       <c r="C120">
-        <v>104.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D120">
-        <v>100.5</v>
+        <v>96.7</v>
       </c>
       <c r="E120">
-        <v>100.4</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2860,16 +3364,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>105.4</v>
+        <v>85.7</v>
       </c>
       <c r="C121">
-        <v>104.7</v>
+        <v>88.5</v>
       </c>
       <c r="D121">
-        <v>100.5</v>
+        <v>96.8</v>
       </c>
       <c r="E121">
-        <v>100.4</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2877,16 +3381,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>104.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C122">
-        <v>102.9</v>
+        <v>87.5</v>
       </c>
       <c r="D122">
-        <v>100.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E122">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2894,16 +3398,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>104.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C123">
-        <v>103.3</v>
+        <v>87.8</v>
       </c>
       <c r="D123">
-        <v>100.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E123">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2911,16 +3415,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>105.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C124">
-        <v>104.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D124">
-        <v>100.3</v>
+        <v>96.8</v>
       </c>
       <c r="E124">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2928,16 +3432,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>105.4</v>
+        <v>86.7</v>
       </c>
       <c r="C125">
-        <v>105.3</v>
+        <v>88.8</v>
       </c>
       <c r="D125">
-        <v>100.2</v>
+        <v>97</v>
       </c>
       <c r="E125">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2945,16 +3449,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>105.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C126">
-        <v>105.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D126">
-        <v>100.1</v>
+        <v>97.3</v>
       </c>
       <c r="E126">
-        <v>100.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2962,16 +3466,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>105.7</v>
+        <v>87</v>
       </c>
       <c r="C127">
-        <v>105.6</v>
+        <v>89</v>
       </c>
       <c r="D127">
-        <v>99.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E127">
-        <v>100</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2979,16 +3483,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>105.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C128">
-        <v>105.3</v>
+        <v>88.7</v>
       </c>
       <c r="D128">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E128">
-        <v>100</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2996,16 +3500,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>104.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C129">
-        <v>104.7</v>
+        <v>88.8</v>
       </c>
       <c r="D129">
-        <v>100.1</v>
+        <v>97.7</v>
       </c>
       <c r="E129">
-        <v>99.8</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3013,16 +3517,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>105</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C130">
-        <v>104.9</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D130">
-        <v>99.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E130">
-        <v>99.8</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3030,16 +3534,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>105.2</v>
+        <v>87</v>
       </c>
       <c r="C131">
-        <v>105.1</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D131">
-        <v>99.8</v>
+        <v>97.5</v>
       </c>
       <c r="E131">
-        <v>99.90000000000001</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3047,16 +3551,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>104.8</v>
+        <v>87</v>
       </c>
       <c r="C132">
-        <v>104.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D132">
-        <v>99.5</v>
+        <v>97</v>
       </c>
       <c r="E132">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3064,16 +3568,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>105.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C133">
-        <v>104.9</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D133">
-        <v>99.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E133">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3081,16 +3585,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>105.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C134">
-        <v>104.4</v>
+        <v>89</v>
       </c>
       <c r="D134">
-        <v>99.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E134">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3098,13 +3602,13 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>105.5</v>
+        <v>87.2</v>
       </c>
       <c r="C135">
-        <v>104.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D135">
-        <v>99.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E135">
         <v>100.2</v>
@@ -3115,16 +3619,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>106.5</v>
+        <v>87.8</v>
       </c>
       <c r="C136">
-        <v>105.5</v>
+        <v>90</v>
       </c>
       <c r="D136">
-        <v>99.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E136">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3132,16 +3636,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>107.1</v>
+        <v>88.3</v>
       </c>
       <c r="C137">
-        <v>106</v>
+        <v>90.5</v>
       </c>
       <c r="D137">
-        <v>99.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="E137">
-        <v>98.90000000000001</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3149,16 +3653,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>107.4</v>
+        <v>88.5</v>
       </c>
       <c r="C138">
-        <v>106.3</v>
+        <v>90.7</v>
       </c>
       <c r="D138">
-        <v>99.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E138">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3166,16 +3670,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>107.7</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C139">
-        <v>106.5</v>
+        <v>90.7</v>
       </c>
       <c r="D139">
-        <v>99.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E139">
-        <v>98.90000000000001</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3183,16 +3687,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>107.6</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="C140">
-        <v>106.1</v>
+        <v>90.3</v>
       </c>
       <c r="D140">
-        <v>99.7</v>
+        <v>97</v>
       </c>
       <c r="E140">
-        <v>99.09999999999999</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3200,16 +3704,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>108</v>
+        <v>88.5</v>
       </c>
       <c r="C141">
-        <v>106.4</v>
+        <v>90.5</v>
       </c>
       <c r="D141">
-        <v>99.7</v>
+        <v>97.5</v>
       </c>
       <c r="E141">
-        <v>99</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3217,9 +3721,2865 @@
         <v>145</v>
       </c>
       <c r="B142">
+        <v>88.8</v>
+      </c>
+      <c r="C142">
+        <v>90.8</v>
+      </c>
+      <c r="D142">
+        <v>97.5</v>
+      </c>
+      <c r="E142">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>89.2</v>
+      </c>
+      <c r="C143">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D143">
+        <v>97.8</v>
+      </c>
+      <c r="E143">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>89.7</v>
+      </c>
+      <c r="C144">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D144">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E144">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C145">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="D145">
+        <v>97.8</v>
+      </c>
+      <c r="E145">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>89.7</v>
+      </c>
+      <c r="C146">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D146">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E146">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>90</v>
+      </c>
+      <c r="C147">
+        <v>91</v>
+      </c>
+      <c r="D147">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E147">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C148">
+        <v>91.8</v>
+      </c>
+      <c r="D148">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E148">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>91.2</v>
+      </c>
+      <c r="C149">
+        <v>92</v>
+      </c>
+      <c r="D149">
+        <v>97.8</v>
+      </c>
+      <c r="E149">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>91.8</v>
+      </c>
+      <c r="C150">
+        <v>92.2</v>
+      </c>
+      <c r="D150">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E150">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="C151">
+        <v>92.3</v>
+      </c>
+      <c r="D151">
+        <v>99</v>
+      </c>
+      <c r="E151">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>92</v>
+      </c>
+      <c r="C152">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D152">
+        <v>99.2</v>
+      </c>
+      <c r="E152">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>91.8</v>
+      </c>
+      <c r="C153">
+        <v>92.2</v>
+      </c>
+      <c r="D153">
+        <v>99.5</v>
+      </c>
+      <c r="E153">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>92</v>
+      </c>
+      <c r="C154">
+        <v>92.5</v>
+      </c>
+      <c r="D154">
+        <v>99.5</v>
+      </c>
+      <c r="E154">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>92</v>
+      </c>
+      <c r="C155">
+        <v>92.8</v>
+      </c>
+      <c r="D155">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E155">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C156">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D156">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E156">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>91.5</v>
+      </c>
+      <c r="C157">
+        <v>93.3</v>
+      </c>
+      <c r="D157">
+        <v>98.2</v>
+      </c>
+      <c r="E157">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>90.7</v>
+      </c>
+      <c r="C158">
+        <v>92</v>
+      </c>
+      <c r="D158">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E158">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C159">
+        <v>92.5</v>
+      </c>
+      <c r="D159">
+        <v>97.3</v>
+      </c>
+      <c r="E159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="C160">
+        <v>93.2</v>
+      </c>
+      <c r="D160">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E160">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>91.8</v>
+      </c>
+      <c r="C161">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D161">
+        <v>97.7</v>
+      </c>
+      <c r="E161">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>91.8</v>
+      </c>
+      <c r="C162">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D162">
+        <v>97.5</v>
+      </c>
+      <c r="E162">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>92</v>
+      </c>
+      <c r="C163">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D163">
+        <v>97.3</v>
+      </c>
+      <c r="E163">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="C164">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D164">
+        <v>97</v>
+      </c>
+      <c r="E164">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>91.7</v>
+      </c>
+      <c r="C165">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="D165">
+        <v>97.3</v>
+      </c>
+      <c r="E165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>91.7</v>
+      </c>
+      <c r="C166">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D166">
+        <v>97.3</v>
+      </c>
+      <c r="E166">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="C167">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D167">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E167">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168">
+        <v>92</v>
+      </c>
+      <c r="C168">
+        <v>93.8</v>
+      </c>
+      <c r="D168">
+        <v>96.7</v>
+      </c>
+      <c r="E168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169">
+        <v>92.3</v>
+      </c>
+      <c r="C169">
+        <v>94.3</v>
+      </c>
+      <c r="D169">
+        <v>96.5</v>
+      </c>
+      <c r="E169">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C170">
+        <v>92.8</v>
+      </c>
+      <c r="D170">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E170">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="C171">
+        <v>93.2</v>
+      </c>
+      <c r="D171">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E171">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C172">
+        <v>94.2</v>
+      </c>
+      <c r="D172">
+        <v>96.8</v>
+      </c>
+      <c r="E172">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>93.3</v>
+      </c>
+      <c r="C173">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D173">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E173">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C174">
+        <v>94.5</v>
+      </c>
+      <c r="D174">
+        <v>96.8</v>
+      </c>
+      <c r="E174">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C175">
+        <v>94.5</v>
+      </c>
+      <c r="D175">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E175">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>93</v>
+      </c>
+      <c r="C176">
+        <v>94</v>
+      </c>
+      <c r="D176">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E176">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C177">
+        <v>94.3</v>
+      </c>
+      <c r="D177">
+        <v>96.2</v>
+      </c>
+      <c r="E177">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C178">
+        <v>94.7</v>
+      </c>
+      <c r="D178">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E178">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>93.7</v>
+      </c>
+      <c r="C179">
+        <v>95</v>
+      </c>
+      <c r="D179">
+        <v>96.7</v>
+      </c>
+      <c r="E179">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>93.8</v>
+      </c>
+      <c r="C180">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D180">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E180">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C181">
+        <v>95.3</v>
+      </c>
+      <c r="D181">
+        <v>96.2</v>
+      </c>
+      <c r="E181">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>93.7</v>
+      </c>
+      <c r="C182">
+        <v>93.8</v>
+      </c>
+      <c r="D182">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E182">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="C183">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D183">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E183">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C184">
+        <v>95.5</v>
+      </c>
+      <c r="D184">
+        <v>96.3</v>
+      </c>
+      <c r="E184">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="C185">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D185">
+        <v>96.5</v>
+      </c>
+      <c r="E185">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="C186">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D186">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E186">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="C187">
+        <v>96</v>
+      </c>
+      <c r="D187">
+        <v>96.3</v>
+      </c>
+      <c r="E187">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>95.3</v>
+      </c>
+      <c r="C188">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D188">
+        <v>96.3</v>
+      </c>
+      <c r="E188">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>95.5</v>
+      </c>
+      <c r="C189">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D189">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E189">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>96.2</v>
+      </c>
+      <c r="C190">
+        <v>96.2</v>
+      </c>
+      <c r="D190">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E190">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C191">
+        <v>96.5</v>
+      </c>
+      <c r="D191">
+        <v>96.5</v>
+      </c>
+      <c r="E191">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C192">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D192">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E192">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>97</v>
+      </c>
+      <c r="C193">
+        <v>96.8</v>
+      </c>
+      <c r="D193">
+        <v>96</v>
+      </c>
+      <c r="E193">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>96.2</v>
+      </c>
+      <c r="C194">
+        <v>95.2</v>
+      </c>
+      <c r="D194">
+        <v>96.2</v>
+      </c>
+      <c r="E194">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>96.7</v>
+      </c>
+      <c r="C195">
+        <v>95.5</v>
+      </c>
+      <c r="D195">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E195">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C196">
+        <v>97</v>
+      </c>
+      <c r="D196">
+        <v>96.8</v>
+      </c>
+      <c r="E196">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C197">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D197">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E197">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>98.2</v>
+      </c>
+      <c r="C198">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D198">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E198">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>98.2</v>
+      </c>
+      <c r="C199">
+        <v>97.5</v>
+      </c>
+      <c r="D199">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E199">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C200">
+        <v>96.7</v>
+      </c>
+      <c r="D200">
+        <v>95.8</v>
+      </c>
+      <c r="E200">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>98</v>
+      </c>
+      <c r="C201">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D201">
+        <v>96</v>
+      </c>
+      <c r="E201">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>98.7</v>
+      </c>
+      <c r="C202">
+        <v>97.7</v>
+      </c>
+      <c r="D202">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E202">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>99</v>
+      </c>
+      <c r="C203">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D203">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E203">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>98.8</v>
+      </c>
+      <c r="C204">
+        <v>97.8</v>
+      </c>
+      <c r="D204">
+        <v>95.8</v>
+      </c>
+      <c r="E204">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C205">
+        <v>98.3</v>
+      </c>
+      <c r="D205">
+        <v>95.8</v>
+      </c>
+      <c r="E205">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C206">
+        <v>96.5</v>
+      </c>
+      <c r="D206">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E206">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C207">
+        <v>96.8</v>
+      </c>
+      <c r="D207">
+        <v>95.7</v>
+      </c>
+      <c r="E207">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C208">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D208">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E208">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>99.5</v>
+      </c>
+      <c r="C209">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D209">
+        <v>96.2</v>
+      </c>
+      <c r="E209">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C210">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D210">
+        <v>96.3</v>
+      </c>
+      <c r="E210">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>99.7</v>
+      </c>
+      <c r="C211">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D211">
+        <v>96.3</v>
+      </c>
+      <c r="E211">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>99.2</v>
+      </c>
+      <c r="C212">
+        <v>97.8</v>
+      </c>
+      <c r="D212">
+        <v>96.5</v>
+      </c>
+      <c r="E212">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>99.3</v>
+      </c>
+      <c r="C213">
+        <v>98</v>
+      </c>
+      <c r="D213">
+        <v>96.8</v>
+      </c>
+      <c r="E213">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>99.8</v>
+      </c>
+      <c r="C214">
+        <v>98.7</v>
+      </c>
+      <c r="D214">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E214">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>99.7</v>
+      </c>
+      <c r="C215">
+        <v>98.7</v>
+      </c>
+      <c r="D215">
+        <v>97.2</v>
+      </c>
+      <c r="E215">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C216">
+        <v>98.7</v>
+      </c>
+      <c r="D216">
+        <v>97.3</v>
+      </c>
+      <c r="E216">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217">
+        <v>100</v>
+      </c>
+      <c r="C217">
+        <v>99</v>
+      </c>
+      <c r="D217">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E217">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>98.8</v>
+      </c>
+      <c r="C218">
+        <v>97.3</v>
+      </c>
+      <c r="D218">
+        <v>97.2</v>
+      </c>
+      <c r="E218">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C219">
+        <v>97.7</v>
+      </c>
+      <c r="D219">
+        <v>97.2</v>
+      </c>
+      <c r="E219">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>100.1</v>
+      </c>
+      <c r="C220">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D220">
+        <v>97.5</v>
+      </c>
+      <c r="E220">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>100.2</v>
+      </c>
+      <c r="C221">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D221">
+        <v>99.5</v>
+      </c>
+      <c r="E221">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>100.1</v>
+      </c>
+      <c r="C222">
+        <v>99.3</v>
+      </c>
+      <c r="D222">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E222">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>100.2</v>
+      </c>
+      <c r="C223">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D223">
+        <v>99.8</v>
+      </c>
+      <c r="E223">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C224">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D224">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E224">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>99.7</v>
+      </c>
+      <c r="C225">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D225">
+        <v>100</v>
+      </c>
+      <c r="E225">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>100.1</v>
+      </c>
+      <c r="C226">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D226">
+        <v>100.3</v>
+      </c>
+      <c r="E226">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>100.1</v>
+      </c>
+      <c r="C227">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D227">
+        <v>100</v>
+      </c>
+      <c r="E227">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C228">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D228">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E228">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>99.8</v>
+      </c>
+      <c r="C229">
+        <v>99.7</v>
+      </c>
+      <c r="D229">
+        <v>99.7</v>
+      </c>
+      <c r="E229">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230">
+        <v>98.2</v>
+      </c>
+      <c r="C230">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D230">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E230">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C231">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D231">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E231">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232">
+        <v>100</v>
+      </c>
+      <c r="C232">
+        <v>99.8</v>
+      </c>
+      <c r="D232">
+        <v>99.7</v>
+      </c>
+      <c r="E232">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233">
+        <v>100.4</v>
+      </c>
+      <c r="C233">
+        <v>100.3</v>
+      </c>
+      <c r="D233">
+        <v>100.2</v>
+      </c>
+      <c r="E233">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234">
+        <v>100.7</v>
+      </c>
+      <c r="C234">
+        <v>100.5</v>
+      </c>
+      <c r="D234">
+        <v>100.4</v>
+      </c>
+      <c r="E234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>100.7</v>
+      </c>
+      <c r="C235">
+        <v>100.6</v>
+      </c>
+      <c r="D235">
+        <v>100.2</v>
+      </c>
+      <c r="E235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>100.1</v>
+      </c>
+      <c r="C236">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D236">
+        <v>100.1</v>
+      </c>
+      <c r="E236">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>100.1</v>
+      </c>
+      <c r="C237">
+        <v>100.2</v>
+      </c>
+      <c r="D237">
+        <v>100.2</v>
+      </c>
+      <c r="E237">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238">
+        <v>100.3</v>
+      </c>
+      <c r="C238">
+        <v>100.7</v>
+      </c>
+      <c r="D238">
+        <v>100.3</v>
+      </c>
+      <c r="E238">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239">
+        <v>100.5</v>
+      </c>
+      <c r="C239">
+        <v>100.9</v>
+      </c>
+      <c r="D239">
+        <v>100.2</v>
+      </c>
+      <c r="E239">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240">
+        <v>100</v>
+      </c>
+      <c r="C240">
+        <v>100.3</v>
+      </c>
+      <c r="D240">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E240">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241">
+        <v>100</v>
+      </c>
+      <c r="C241">
+        <v>100.6</v>
+      </c>
+      <c r="D241">
+        <v>99.8</v>
+      </c>
+      <c r="E241">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C242">
+        <v>98.8</v>
+      </c>
+      <c r="D242">
+        <v>99.5</v>
+      </c>
+      <c r="E242">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243">
+        <v>98.7</v>
+      </c>
+      <c r="C243">
+        <v>99.2</v>
+      </c>
+      <c r="D243">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E243">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244">
+        <v>100</v>
+      </c>
+      <c r="C244">
+        <v>100.8</v>
+      </c>
+      <c r="D244">
+        <v>99.7</v>
+      </c>
+      <c r="E244">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245">
+        <v>100.2</v>
+      </c>
+      <c r="C245">
+        <v>101</v>
+      </c>
+      <c r="D245">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E245">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246">
+        <v>100.6</v>
+      </c>
+      <c r="C246">
+        <v>101.3</v>
+      </c>
+      <c r="D246">
+        <v>100</v>
+      </c>
+      <c r="E246">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247">
+        <v>100.8</v>
+      </c>
+      <c r="C247">
+        <v>101.4</v>
+      </c>
+      <c r="D247">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E247">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248">
+        <v>100.3</v>
+      </c>
+      <c r="C248">
+        <v>100.8</v>
+      </c>
+      <c r="D248">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E248">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249">
+        <v>100.3</v>
+      </c>
+      <c r="C249">
+        <v>101</v>
+      </c>
+      <c r="D249">
+        <v>99.7</v>
+      </c>
+      <c r="E249">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250">
+        <v>100.7</v>
+      </c>
+      <c r="C250">
+        <v>101.5</v>
+      </c>
+      <c r="D250">
+        <v>99.8</v>
+      </c>
+      <c r="E250">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251">
+        <v>101</v>
+      </c>
+      <c r="C251">
+        <v>101.6</v>
+      </c>
+      <c r="D251">
+        <v>100.4</v>
+      </c>
+      <c r="E251">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252">
+        <v>100.6</v>
+      </c>
+      <c r="C252">
+        <v>101</v>
+      </c>
+      <c r="D252">
+        <v>100.4</v>
+      </c>
+      <c r="E252">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253">
+        <v>101.1</v>
+      </c>
+      <c r="C253">
+        <v>101.5</v>
+      </c>
+      <c r="D253">
+        <v>100.1</v>
+      </c>
+      <c r="E253">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254">
+        <v>100.3</v>
+      </c>
+      <c r="C254">
+        <v>99.7</v>
+      </c>
+      <c r="D254">
+        <v>100</v>
+      </c>
+      <c r="E254">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255">
+        <v>100.7</v>
+      </c>
+      <c r="C255">
+        <v>100.1</v>
+      </c>
+      <c r="D255">
+        <v>99.8</v>
+      </c>
+      <c r="E255">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256">
+        <v>101.5</v>
+      </c>
+      <c r="C256">
+        <v>101.5</v>
+      </c>
+      <c r="D256">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E256">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257">
+        <v>102.1</v>
+      </c>
+      <c r="C257">
+        <v>102.3</v>
+      </c>
+      <c r="D257">
+        <v>100.3</v>
+      </c>
+      <c r="E257">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258">
+        <v>102</v>
+      </c>
+      <c r="C258">
+        <v>102.3</v>
+      </c>
+      <c r="D258">
+        <v>100.4</v>
+      </c>
+      <c r="E258">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259">
+        <v>102.1</v>
+      </c>
+      <c r="C259">
+        <v>102.6</v>
+      </c>
+      <c r="D259">
+        <v>100.2</v>
+      </c>
+      <c r="E259">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260">
+        <v>101.6</v>
+      </c>
+      <c r="C260">
+        <v>102</v>
+      </c>
+      <c r="D260">
+        <v>100.1</v>
+      </c>
+      <c r="E260">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261">
+        <v>101.9</v>
+      </c>
+      <c r="C261">
+        <v>102.3</v>
+      </c>
+      <c r="D261">
+        <v>100.3</v>
+      </c>
+      <c r="E261">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262">
+        <v>102.3</v>
+      </c>
+      <c r="C262">
+        <v>102.7</v>
+      </c>
+      <c r="D262">
+        <v>100.5</v>
+      </c>
+      <c r="E262">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263">
+        <v>102.3</v>
+      </c>
+      <c r="C263">
+        <v>102.5</v>
+      </c>
+      <c r="D263">
+        <v>100.6</v>
+      </c>
+      <c r="E263">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264">
+        <v>102.1</v>
+      </c>
+      <c r="C264">
+        <v>102</v>
+      </c>
+      <c r="D264">
+        <v>100.9</v>
+      </c>
+      <c r="E264">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265">
+        <v>102.5</v>
+      </c>
+      <c r="C265">
+        <v>102.4</v>
+      </c>
+      <c r="D265">
+        <v>101.2</v>
+      </c>
+      <c r="E265">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266">
+        <v>101.6</v>
+      </c>
+      <c r="C266">
+        <v>100.7</v>
+      </c>
+      <c r="D266">
+        <v>101.3</v>
+      </c>
+      <c r="E266">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267">
+        <v>101.8</v>
+      </c>
+      <c r="C267">
+        <v>101.1</v>
+      </c>
+      <c r="D267">
+        <v>101.3</v>
+      </c>
+      <c r="E267">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268">
+        <v>102.9</v>
+      </c>
+      <c r="C268">
+        <v>102.6</v>
+      </c>
+      <c r="D268">
+        <v>101</v>
+      </c>
+      <c r="E268">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269">
+        <v>103.3</v>
+      </c>
+      <c r="C269">
+        <v>103</v>
+      </c>
+      <c r="D269">
+        <v>100.9</v>
+      </c>
+      <c r="E269">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270">
+        <v>104</v>
+      </c>
+      <c r="C270">
+        <v>103.5</v>
+      </c>
+      <c r="D270">
+        <v>101</v>
+      </c>
+      <c r="E270">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271">
+        <v>104.1</v>
+      </c>
+      <c r="C271">
+        <v>103.6</v>
+      </c>
+      <c r="D271">
+        <v>100.9</v>
+      </c>
+      <c r="E271">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272">
+        <v>103.9</v>
+      </c>
+      <c r="C272">
+        <v>103.2</v>
+      </c>
+      <c r="D272">
+        <v>101</v>
+      </c>
+      <c r="E272">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273">
+        <v>104</v>
+      </c>
+      <c r="C273">
+        <v>103.3</v>
+      </c>
+      <c r="D273">
+        <v>101.6</v>
+      </c>
+      <c r="E273">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274">
+        <v>104.4</v>
+      </c>
+      <c r="C274">
+        <v>103.7</v>
+      </c>
+      <c r="D274">
+        <v>101.7</v>
+      </c>
+      <c r="E274">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275">
+        <v>104.7</v>
+      </c>
+      <c r="C275">
+        <v>103.7</v>
+      </c>
+      <c r="D275">
+        <v>102</v>
+      </c>
+      <c r="E275">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276">
+        <v>104.1</v>
+      </c>
+      <c r="C276">
+        <v>102.9</v>
+      </c>
+      <c r="D276">
+        <v>101.8</v>
+      </c>
+      <c r="E276">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277">
+        <v>104.1</v>
+      </c>
+      <c r="C277">
+        <v>103.4</v>
+      </c>
+      <c r="D277">
+        <v>101.5</v>
+      </c>
+      <c r="E277">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278">
+        <v>103</v>
+      </c>
+      <c r="C278">
+        <v>101.8</v>
+      </c>
+      <c r="D278">
+        <v>101.5</v>
+      </c>
+      <c r="E278">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279">
+        <v>103.3</v>
+      </c>
+      <c r="C279">
+        <v>102.1</v>
+      </c>
+      <c r="D279">
+        <v>101.5</v>
+      </c>
+      <c r="E279">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280">
+        <v>104.4</v>
+      </c>
+      <c r="C280">
+        <v>103.4</v>
+      </c>
+      <c r="D280">
+        <v>101.5</v>
+      </c>
+      <c r="E280">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281">
+        <v>105.1</v>
+      </c>
+      <c r="C281">
+        <v>104.4</v>
+      </c>
+      <c r="D281">
+        <v>101.8</v>
+      </c>
+      <c r="E281">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282">
+        <v>105.2</v>
+      </c>
+      <c r="C282">
+        <v>104.3</v>
+      </c>
+      <c r="D282">
+        <v>101.8</v>
+      </c>
+      <c r="E282">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283">
+        <v>105.4</v>
+      </c>
+      <c r="C283">
+        <v>104.7</v>
+      </c>
+      <c r="D283">
+        <v>101.6</v>
+      </c>
+      <c r="E283">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284">
+        <v>104.9</v>
+      </c>
+      <c r="C284">
+        <v>104.1</v>
+      </c>
+      <c r="D284">
+        <v>101.6</v>
+      </c>
+      <c r="E284">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285">
+        <v>105.1</v>
+      </c>
+      <c r="C285">
+        <v>104.3</v>
+      </c>
+      <c r="D285">
+        <v>101.8</v>
+      </c>
+      <c r="E285">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286">
+        <v>105.3</v>
+      </c>
+      <c r="C286">
+        <v>104.7</v>
+      </c>
+      <c r="D286">
+        <v>101.9</v>
+      </c>
+      <c r="E286">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287">
+        <v>105.4</v>
+      </c>
+      <c r="C287">
+        <v>104.8</v>
+      </c>
+      <c r="D287">
+        <v>100.4</v>
+      </c>
+      <c r="E287">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288">
+        <v>105.1</v>
+      </c>
+      <c r="C288">
+        <v>104.3</v>
+      </c>
+      <c r="D288">
+        <v>100.5</v>
+      </c>
+      <c r="E288">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289">
+        <v>105.4</v>
+      </c>
+      <c r="C289">
+        <v>104.7</v>
+      </c>
+      <c r="D289">
+        <v>100.5</v>
+      </c>
+      <c r="E289">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290">
+        <v>104.4</v>
+      </c>
+      <c r="C290">
+        <v>102.9</v>
+      </c>
+      <c r="D290">
+        <v>100.5</v>
+      </c>
+      <c r="E290">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291">
+        <v>104.6</v>
+      </c>
+      <c r="C291">
+        <v>103.3</v>
+      </c>
+      <c r="D291">
+        <v>100.3</v>
+      </c>
+      <c r="E291">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292">
+        <v>105.1</v>
+      </c>
+      <c r="C292">
+        <v>104.5</v>
+      </c>
+      <c r="D292">
+        <v>100.3</v>
+      </c>
+      <c r="E292">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293">
+        <v>105.4</v>
+      </c>
+      <c r="C293">
+        <v>105.3</v>
+      </c>
+      <c r="D293">
+        <v>100.2</v>
+      </c>
+      <c r="E293">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294">
+        <v>105.3</v>
+      </c>
+      <c r="C294">
+        <v>105.3</v>
+      </c>
+      <c r="D294">
+        <v>100.1</v>
+      </c>
+      <c r="E294">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295">
+        <v>105.7</v>
+      </c>
+      <c r="C295">
+        <v>105.6</v>
+      </c>
+      <c r="D295">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E295">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296">
+        <v>105.3</v>
+      </c>
+      <c r="C296">
+        <v>105.3</v>
+      </c>
+      <c r="D296">
+        <v>100</v>
+      </c>
+      <c r="E296">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297">
+        <v>104.9</v>
+      </c>
+      <c r="C297">
+        <v>104.7</v>
+      </c>
+      <c r="D297">
+        <v>100.1</v>
+      </c>
+      <c r="E297">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298">
+        <v>105</v>
+      </c>
+      <c r="C298">
+        <v>104.9</v>
+      </c>
+      <c r="D298">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E298">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299">
+        <v>105.2</v>
+      </c>
+      <c r="C299">
+        <v>105.1</v>
+      </c>
+      <c r="D299">
+        <v>99.8</v>
+      </c>
+      <c r="E299">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300">
+        <v>104.8</v>
+      </c>
+      <c r="C300">
+        <v>104.5</v>
+      </c>
+      <c r="D300">
+        <v>99.5</v>
+      </c>
+      <c r="E300">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301">
+        <v>105.2</v>
+      </c>
+      <c r="C301">
+        <v>104.9</v>
+      </c>
+      <c r="D301">
+        <v>99.3</v>
+      </c>
+      <c r="E301">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302">
+        <v>105.3</v>
+      </c>
+      <c r="C302">
+        <v>104.4</v>
+      </c>
+      <c r="D302">
+        <v>99.8</v>
+      </c>
+      <c r="E302">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303">
+        <v>105.5</v>
+      </c>
+      <c r="C303">
+        <v>104.5</v>
+      </c>
+      <c r="D303">
+        <v>99.8</v>
+      </c>
+      <c r="E303">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304">
+        <v>106.5</v>
+      </c>
+      <c r="C304">
+        <v>105.5</v>
+      </c>
+      <c r="D304">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E304">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305">
+        <v>107.1</v>
+      </c>
+      <c r="C305">
+        <v>106</v>
+      </c>
+      <c r="D305">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E305">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>309</v>
+      </c>
+      <c r="B306">
+        <v>107.4</v>
+      </c>
+      <c r="C306">
+        <v>106.3</v>
+      </c>
+      <c r="D306">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E306">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>310</v>
+      </c>
+      <c r="B307">
+        <v>107.7</v>
+      </c>
+      <c r="C307">
+        <v>106.5</v>
+      </c>
+      <c r="D307">
+        <v>99.5</v>
+      </c>
+      <c r="E307">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308">
+        <v>107.6</v>
+      </c>
+      <c r="C308">
+        <v>106.1</v>
+      </c>
+      <c r="D308">
+        <v>99.7</v>
+      </c>
+      <c r="E308">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>312</v>
+      </c>
+      <c r="B309">
+        <v>108</v>
+      </c>
+      <c r="C309">
+        <v>106.4</v>
+      </c>
+      <c r="D309">
+        <v>99.7</v>
+      </c>
+      <c r="E309">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>313</v>
+      </c>
+      <c r="B310">
         <v>108.5</v>
       </c>
-      <c r="C142">
+      <c r="C310">
         <v>106.9</v>
       </c>
     </row>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>Serie</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6582,6 +6585,23 @@
       <c r="C310">
         <v>106.9</v>
       </c>
+      <c r="D310">
+        <v>100.1</v>
+      </c>
+      <c r="E310">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311">
+        <v>109.4</v>
+      </c>
+      <c r="C311">
+        <v>107.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
